--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_292.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_292.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:23.100000', '0:01:30.020000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:01:34.800000', '0:01:46.960000'), ('0:00:40.820000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(118.44, 122.34)]</t>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:09.560000', '0:00:25.140000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:10.540000', '0:00:14.760000'), ('0:00:09.940000', '0:00:14.100000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Eb', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'C', 'Bb/5', 'F']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(50.246303, 55.621723)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(29.986893, 34.874693)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
